--- a/biology/Médecine/Chromosome_X/Chromosome_X.xlsx
+++ b/biology/Médecine/Chromosome_X/Chromosome_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome X est l'un des deux chromosomes sexuels de l'être humain et de certains animaux (l'autre chromosome sexuel étant le chromosome Y). Il fait partie du système XY de détermination sexuelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome X humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 154 824 264
 Nombre de gènes : 931
@@ -546,7 +560,9 @@
           <t>Inactivation du chromosome X ou lyonisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hommes ont un seul chromosome X et les femmes deux chromosomes X. Ce chromosome X supplémentaire n'aboutit pas à une « surproduction » des protéines codées par ce chromosome. Par exemple, les facteurs de coagulations comme le facteur VIII est codé par un gène situé sur le chromosome X. Les femmes ne possèdent pas pour autant deux fois plus de facteur VIII.
 Il existe donc une inactivation de l'un des deux chromosomes qui prend une forme condensée et visible, le corpuscule de Barr ou corps de Barr. Ce « corpuscule » se situe généralement dans le noyau de la cellule, sous la membrane interne de l'enveloppe nucléaire.
@@ -582,7 +598,9 @@
           <t>Anomalies chromosomiques décrites au niveau du chromosome X</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Syndrome de Klinefelter : 47,XXY
 Syndrome triple X : 47,XXX ou trisomie X
@@ -618,7 +636,9 @@
           <t>Gènes localisés sur le chromosome X</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux gènes situés sur le chromosome X sont en cause dans des retards mentaux, ce qui pourrait expliquer, entre autres, qu'il y ait davantage de garçons porteurs d'un handicap mental que de filles[a]. Par contre, l'incontinentia pigmenti est une pathologie essentiellement féminine.
 Source: Pr des Portes - Déc 2006
@@ -650,7 +670,9 @@
           <t>Maladies localisées sur le chromosome X</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome X sont :
